--- a/Test/CountryTest.xlsx
+++ b/Test/CountryTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kedohert\OneDrive - Cox Communications\Documents\GitHub\EDH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kedohert\OneDrive - Cox Communications\Documents\GitHub\EDH\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{479AB3A5-C80A-4617-BE4B-8AF7CE8D600C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D229BF-B8A9-4ED3-A653-A7C694C9D459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{7AEC9AE9-2F74-4928-B82B-C6283F540E6E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Ireland</t>
   </si>
 </sst>
 </file>
@@ -397,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DDC1A8-C908-4AD3-B37D-175DB5FBF702}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,6 +427,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
